--- a/biology/Botanique/Jardin_de_Lacombe/Jardin_de_Lacombe.xlsx
+++ b/biology/Botanique/Jardin_de_Lacombe/Jardin_de_Lacombe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de Lacombe est un jardin privé français d'1 hectare situé à l'arrière d'une demeure de la ville de Lagraulière (Corrèze).
-Une flore nombreuse peut y être observée tel qu'un platane, de vieux buis et deux ifs pluricentenaires. Propriété de Paule-Marie Duquesnoy, le jardin est accessible au public, sur rendez-vous, de juin à septembre[1]. 
+Une flore nombreuse peut y être observée tel qu'un platane, de vieux buis et deux ifs pluricentenaires. Propriété de Paule-Marie Duquesnoy, le jardin est accessible au public, sur rendez-vous, de juin à septembre. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de Lacombe est soutenu par de hauts murs. Une gloriette ainsi que des structures[précision nécessaire] datant des XVIIIe et XIXe siècles sont également visibles.
-En 2006, le jardin accueillit une exposition du sculpteur Marc Duquesnoy, fils de la propriétaire. En 2007, il fut l’objet d'une « intervention paysagère » de l'artiste Jean-Pierre Brazs[1].
+En 2006, le jardin accueillit une exposition du sculpteur Marc Duquesnoy, fils de la propriétaire. En 2007, il fut l’objet d'une « intervention paysagère » de l'artiste Jean-Pierre Brazs.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Végétaux, collection d'essences de plantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arbres remarquables, Arbres fruitiers, Arbustes, Plantes vivaces, Fleurs annuelles, ifs, platane, févier, grand buis, magnolia à feuilles caduques et magnolias à feuilles persistantes, baguenaudier, citronnier rustique (citrus poncirus)
 Arbres fruitiers: plaqueminier, prunus myrobolan, neflier, pêchers, quelques poiriers anciens
@@ -577,9 +593,11 @@
           <t>Modalités d'accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin peut-être visité du 1er juin au 30 septembre sur rendez-vous[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin peut-être visité du 1er juin au 30 septembre sur rendez-vous. 
 </t>
         </is>
       </c>
